--- a/raw/Результати СинЛУК - Весна.xlsx
+++ b/raw/Результати СинЛУК - Весна.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="78">
   <si>
     <t>▲ Город</t>
   </si>
@@ -247,13 +247,19 @@
   </si>
   <si>
     <t>Цинічні бандери</t>
+  </si>
+  <si>
+    <t>Легіон</t>
+  </si>
+  <si>
+    <t>Рівне</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +274,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,9 +304,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -575,10 +589,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Аркуш1"/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,89 +1640,89 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46">
-        <v>45</v>
-      </c>
-      <c r="D46">
-        <v>16</v>
-      </c>
-      <c r="E46">
-        <v>4</v>
-      </c>
-      <c r="F46">
-        <v>7</v>
-      </c>
-      <c r="G46">
-        <v>5</v>
+      <c r="A46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="2">
+        <v>42</v>
+      </c>
+      <c r="D46" s="2">
+        <v>17</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
-      <c r="C47">
-        <v>45</v>
+      <c r="C47" s="2">
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G47">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48">
+        <v>28</v>
+      </c>
+      <c r="C48" s="2">
         <v>47</v>
       </c>
       <c r="D48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
         <v>36</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>48</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -1719,13 +1733,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
       </c>
-      <c r="C50">
-        <v>48</v>
+      <c r="C50" s="2">
+        <v>49</v>
       </c>
       <c r="D50">
         <v>13</v>
@@ -1742,36 +1756,36 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51">
-        <v>50</v>
-      </c>
       <c r="D51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51">
         <v>4</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
       </c>
-      <c r="C52">
-        <v>50</v>
+      <c r="C52" s="2">
+        <v>51</v>
       </c>
       <c r="D52">
         <v>12</v>
@@ -1780,78 +1794,101 @@
         <v>4</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
         <v>28</v>
       </c>
-      <c r="C53">
-        <v>50</v>
+      <c r="C53" s="2">
+        <v>51</v>
       </c>
       <c r="D53">
         <v>12</v>
       </c>
       <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
         <v>2</v>
       </c>
-      <c r="F53">
-        <v>5</v>
-      </c>
       <c r="G53">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="2">
         <v>51</v>
       </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54">
-        <v>53</v>
-      </c>
       <c r="D54">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
         <v>22</v>
       </c>
-      <c r="C55">
-        <v>53</v>
+      <c r="C55" s="2">
+        <v>54</v>
       </c>
       <c r="D55">
         <v>7</v>
       </c>
       <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
         <v>2</v>
       </c>
-      <c r="F55">
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="2">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>3</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>2</v>
       </c>
     </row>
